--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value327.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value327.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>0.8278477856097418</v>
+        <v>0.8684868812561035</v>
       </c>
       <c r="B1">
-        <v>1.600443845758668</v>
+        <v>1.323819637298584</v>
       </c>
       <c r="C1">
-        <v>5.102228071568099</v>
+        <v>15</v>
       </c>
       <c r="D1">
-        <v>2.060456349407123</v>
+        <v>15</v>
       </c>
       <c r="E1">
-        <v>1.031954486609336</v>
+        <v>1.387317895889282</v>
       </c>
     </row>
   </sheetData>
